--- a/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carcam\Desktop\rt localization 060721\CustomLocalization\Localization\RogueTech\RU\RogueModuleTech Quirks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Localization'!$A$1:$E$2343</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" refMode="R1C1" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2572,7 +2577,7 @@
     <t>+1Acc, +25% Crit for Energy Weapons.</t>
   </si>
   <si>
-    <t>+1Точн, +25% Крит от Энерг. оружия.</t>
+    <t>+1 точн., +25% шанс крита от энерг. оружия.</t>
   </si>
   <si>
     <t>Gear_FCS_EnergyPlus.StatusEffect-FCS_Energy2.statusEffects0.Name</t>
@@ -5494,7 +5499,7 @@
     <t>+1Acc, -1 Recoil for Autocannons.</t>
   </si>
   <si>
-    <t>+1Точн, -1 Отдача от Автопушек.</t>
+    <t>+1 точность, -1 отдача от автопушек.</t>
   </si>
   <si>
     <t>Quirk_SpinalMount.StatusEffect-FCS_AC21.statusEffects1.Name</t>
@@ -5734,7 +5739,7 @@
     <t>+1Acc, -1 Recoil for Gauss Weapons.</t>
   </si>
   <si>
-    <t>+1Точн, -1 Отдача от Оружия Гаусса.</t>
+    <t>+1 точность, -1 отдача от пушек Гаусса.</t>
   </si>
   <si>
     <t>Special_Accurate_Weapon_Gauss.StatusEffect-FCS_AC2.statusEffects0.Name</t>
@@ -5770,7 +5775,7 @@
     <t>+1 Acc for PPC Weapons.</t>
   </si>
   <si>
-    <t>+1 Точн для PPC оружия.</t>
+    <t>+1 точн. для PPC оружия.</t>
   </si>
   <si>
     <t>Special_Accurate_Weapon_HandHeld.StatusEffect-FCS_AC2.statusEffects0.Name</t>
@@ -5806,7 +5811,7 @@
     <t>+1 Acc for Laser Weapons.</t>
   </si>
   <si>
-    <t>+1 Точн для Лазер. оружия.</t>
+    <t>+1 точн. для лазер. оружия.</t>
   </si>
   <si>
     <t>Special_Accurate_Weapon_Laser.StatusEffect-FCS_AC2.statusEffects0.Name</t>
@@ -5923,7 +5928,7 @@
     <t>+1 Evasion Ignore.</t>
   </si>
   <si>
-    <t>+1 Уклонение игнор.</t>
+    <t>+1 укл. игнор.</t>
   </si>
   <si>
     <t>Special_Anti_Air_Targeting.StatusEffect-FCS_Flak.statusEffects0.Name</t>
@@ -6277,7 +6282,7 @@
     <t>+1Acc, +25% Crit, +10 Range, -50%MinRange for Missile Weapons.</t>
   </si>
   <si>
-    <t>+1Точн, +25% Крит, +10 Дальн, -50%МинДальн для Ракетного оруж.</t>
+    <t>+1 точность, +25% шанс крита, +10 дальность, -50% мин. дист. для ракетного оружия.</t>
   </si>
   <si>
     <t>Special_FCS_ARTV.StatusEffect_BCMissile.statusEffects3.Name</t>
@@ -9913,7 +9918,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="2">
     <font>
@@ -9946,17 +9951,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -10003,7 +10017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10035,9 +10049,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10069,6 +10084,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -10244,14 +10260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="77.28515625" customWidth="1" style="2"/>
   </cols>
@@ -10957,10 +10973,10 @@
       <c r="A42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -12793,10 +12809,10 @@
       <c r="A150" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -20205,10 +20221,10 @@
       <c r="A586" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B586" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C586" s="2" t="s">
+      <c r="C586" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D586" s="2" t="s">
@@ -20732,10 +20748,10 @@
       <c r="A617" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B617" s="2" t="s">
+      <c r="B617" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C617" s="2" t="s">
+      <c r="C617" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D617" s="2" t="s">
@@ -20766,10 +20782,10 @@
       <c r="A619" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B619" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C619" s="2" t="s">
+      <c r="C619" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D619" s="2" t="s">
@@ -20800,10 +20816,10 @@
       <c r="A621" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B621" s="2" t="s">
+      <c r="B621" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C621" s="2" t="s">
+      <c r="C621" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D621" s="2" t="s">
@@ -20834,10 +20850,10 @@
       <c r="A623" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="B623" s="2" t="s">
+      <c r="B623" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C623" s="2" t="s">
+      <c r="C623" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D623" s="2" t="s">
@@ -20868,10 +20884,10 @@
       <c r="A625" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B625" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C625" s="2" t="s">
+      <c r="C625" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D625" s="2" t="s">
@@ -22075,10 +22091,10 @@
       <c r="A696" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="B696" s="2" t="s">
+      <c r="B696" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C696" s="2" t="s">
+      <c r="C696" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D696" s="2" t="s">
@@ -22109,10 +22125,10 @@
       <c r="A698" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B698" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C698" s="2" t="s">
+      <c r="C698" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D698" s="2" t="s">
@@ -22143,10 +22159,10 @@
       <c r="A700" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B700" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C700" s="2" t="s">
+      <c r="C700" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D700" s="2" t="s">
@@ -22228,10 +22244,10 @@
       <c r="A705" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B705" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C705" s="2" t="s">
+      <c r="C705" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D705" s="2" t="s">
@@ -22262,10 +22278,10 @@
       <c r="A707" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B707" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C707" s="2" t="s">
+      <c r="C707" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D707" s="2" t="s">
@@ -22296,10 +22312,10 @@
       <c r="A709" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="B709" s="2" t="s">
+      <c r="B709" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C709" s="2" t="s">
+      <c r="C709" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D709" s="2" t="s">
@@ -22415,10 +22431,10 @@
       <c r="A716" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="B716" s="2" t="s">
+      <c r="B716" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C716" s="2" t="s">
+      <c r="C716" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D716" s="2" t="s">
@@ -22449,10 +22465,10 @@
       <c r="A718" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="B718" s="2" t="s">
+      <c r="B718" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C718" s="2" t="s">
+      <c r="C718" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D718" s="2" t="s">
@@ -22483,10 +22499,10 @@
       <c r="A720" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B720" s="2" t="s">
+      <c r="B720" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C720" s="2" t="s">
+      <c r="C720" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D720" s="2" t="s">
@@ -22517,10 +22533,10 @@
       <c r="A722" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="B722" s="2" t="s">
+      <c r="B722" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C722" s="2" t="s">
+      <c r="C722" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D722" s="2" t="s">
@@ -25203,10 +25219,10 @@
       <c r="A880" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="B880" s="2" t="s">
+      <c r="B880" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C880" s="2" t="s">
+      <c r="C880" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D880" s="2" t="s">
@@ -30694,10 +30710,10 @@
       <c r="A1203" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="B1203" s="2" t="s">
+      <c r="B1203" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="C1203" s="2" t="s">
+      <c r="C1203" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="D1203" s="2" t="s">
@@ -32751,10 +32767,10 @@
       <c r="A1324" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="B1324" s="2" t="s">
+      <c r="B1324" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1324" s="2" t="s">
+      <c r="C1324" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1324" s="2" t="s">
@@ -32785,10 +32801,10 @@
       <c r="A1326" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="B1326" s="2" t="s">
+      <c r="B1326" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="C1326" s="2" t="s">
+      <c r="C1326" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="D1326" s="2" t="s">
@@ -33142,10 +33158,10 @@
       <c r="A1347" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="B1347" s="2" t="s">
+      <c r="B1347" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1347" s="2" t="s">
+      <c r="C1347" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1347" s="2" t="s">
@@ -33176,10 +33192,10 @@
       <c r="A1349" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="B1349" s="2" t="s">
+      <c r="B1349" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1349" s="2" t="s">
+      <c r="C1349" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1349" s="2" t="s">
@@ -33295,10 +33311,10 @@
       <c r="A1356" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="B1356" s="2" t="s">
+      <c r="B1356" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1356" s="2" t="s">
+      <c r="C1356" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1356" s="2" t="s">
@@ -33414,10 +33430,10 @@
       <c r="A1363" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="B1363" s="2" t="s">
+      <c r="B1363" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1363" s="2" t="s">
+      <c r="C1363" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1363" s="2" t="s">
@@ -33499,10 +33515,10 @@
       <c r="A1368" s="2" t="s">
         <v>1892</v>
       </c>
-      <c r="B1368" s="2" t="s">
+      <c r="B1368" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1368" s="2" t="s">
+      <c r="C1368" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1368" s="2" t="s">
@@ -33533,10 +33549,10 @@
       <c r="A1370" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="B1370" s="2" t="s">
+      <c r="B1370" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1370" s="2" t="s">
+      <c r="C1370" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1370" s="2" t="s">
@@ -33618,10 +33634,10 @@
       <c r="A1375" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="B1375" s="2" t="s">
+      <c r="B1375" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="C1375" s="2" t="s">
+      <c r="C1375" s="4" t="s">
         <v>1903</v>
       </c>
       <c r="D1375" s="2" t="s">
@@ -33652,10 +33668,10 @@
       <c r="A1377" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="B1377" s="2" t="s">
+      <c r="B1377" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="C1377" s="2" t="s">
+      <c r="C1377" s="4" t="s">
         <v>1903</v>
       </c>
       <c r="D1377" s="2" t="s">
@@ -33737,10 +33753,10 @@
       <c r="A1382" s="2" t="s">
         <v>1913</v>
       </c>
-      <c r="B1382" s="2" t="s">
+      <c r="B1382" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="C1382" s="2" t="s">
+      <c r="C1382" s="4" t="s">
         <v>1915</v>
       </c>
       <c r="D1382" s="2" t="s">
@@ -33771,10 +33787,10 @@
       <c r="A1384" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="B1384" s="2" t="s">
+      <c r="B1384" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="C1384" s="2" t="s">
+      <c r="C1384" s="4" t="s">
         <v>1915</v>
       </c>
       <c r="D1384" s="2" t="s">
@@ -33856,10 +33872,10 @@
       <c r="A1389" s="2" t="s">
         <v>1925</v>
       </c>
-      <c r="B1389" s="2" t="s">
+      <c r="B1389" s="4" t="s">
         <v>1926</v>
       </c>
-      <c r="C1389" s="2" t="s">
+      <c r="C1389" s="4" t="s">
         <v>1927</v>
       </c>
       <c r="D1389" s="2" t="s">
@@ -33941,10 +33957,10 @@
       <c r="A1394" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="B1394" s="2" t="s">
+      <c r="B1394" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1394" s="2" t="s">
+      <c r="C1394" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1394" s="2" t="s">
@@ -33975,10 +33991,10 @@
       <c r="A1396" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="B1396" s="2" t="s">
+      <c r="B1396" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C1396" s="2" t="s">
+      <c r="C1396" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D1396" s="2" t="s">
@@ -34060,10 +34076,10 @@
       <c r="A1401" s="2" t="s">
         <v>1944</v>
       </c>
-      <c r="B1401" s="2" t="s">
+      <c r="B1401" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="C1401" s="2" t="s">
+      <c r="C1401" s="4" t="s">
         <v>1915</v>
       </c>
       <c r="D1401" s="2" t="s">
@@ -34094,10 +34110,10 @@
       <c r="A1403" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="B1403" s="2" t="s">
+      <c r="B1403" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="C1403" s="2" t="s">
+      <c r="C1403" s="4" t="s">
         <v>1915</v>
       </c>
       <c r="D1403" s="2" t="s">
@@ -34332,10 +34348,10 @@
       <c r="A1417" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="B1417" s="2" t="s">
+      <c r="B1417" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="C1417" s="2" t="s">
+      <c r="C1417" s="4" t="s">
         <v>1966</v>
       </c>
       <c r="D1417" s="2" t="s">
@@ -35692,10 +35708,10 @@
       <c r="A1497" s="2" t="s">
         <v>2082</v>
       </c>
-      <c r="B1497" s="2" t="s">
+      <c r="B1497" s="4" t="s">
         <v>2083</v>
       </c>
-      <c r="C1497" s="2" t="s">
+      <c r="C1497" s="4" t="s">
         <v>2084</v>
       </c>
       <c r="D1497" s="2" t="s">
@@ -37562,10 +37578,10 @@
       <c r="A1607" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="B1607" s="2" t="s">
+      <c r="B1607" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="C1607" s="2" t="s">
+      <c r="C1607" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D1607" s="2" t="s">
@@ -44600,10 +44616,10 @@
       <c r="A2021" s="2" t="s">
         <v>2849</v>
       </c>
-      <c r="B2021" s="2" t="s">
+      <c r="B2021" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="C2021" s="2" t="s">
+      <c r="C2021" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="D2021" s="2" t="s">
@@ -49377,10 +49393,10 @@
       <c r="A2302" s="2" t="s">
         <v>3240</v>
       </c>
-      <c r="B2302" s="2" t="s">
+      <c r="B2302" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2302" s="2" t="s">
+      <c r="C2302" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D2302" s="2" t="s">
@@ -49836,10 +49852,10 @@
       <c r="A2329" s="2" t="s">
         <v>3269</v>
       </c>
-      <c r="B2329" s="2" t="s">
+      <c r="B2329" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2329" s="2" t="s">
+      <c r="C2329" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D2329" s="2" t="s">

--- a/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
@@ -5697,7 +5697,7 @@
     <t>+3 Turret mounted accuracy.</t>
   </si>
   <si>
-    <t>+3 точность для оружий на турели.</t>
+    <t>+3 точность для орудий на турели.</t>
   </si>
   <si>
     <t>Gear_VultureMKII_Turret.Status-TurretrAccuracy-{location}.statusEffects0.Name</t>
@@ -6573,7 +6573,7 @@
     <t>+1 Acc for Laser Weapons.</t>
   </si>
   <si>
-    <t>+1 точн. для лазер. оружий.</t>
+    <t>+1 точн. для лазер. вооружения.</t>
   </si>
   <si>
     <t>Special_Accurate_Weapon_Laser.StatusEffect-FCS_AC2.statusEffects0.Name</t>
@@ -11145,7 +11145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -11155,7 +11155,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -11460,8 +11459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2354" sqref="B2354"/>
+    <sheetView tabSelected="1" topLeftCell="A2234" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51308,7 +51307,7 @@
       <c r="B2344" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2344" s="9" t="s">
+      <c r="C2344" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2344" s="2" t="s">
@@ -51325,7 +51324,7 @@
       <c r="B2345" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2345" s="5" t="s">
+      <c r="C2345" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2345" s="2" t="s">
@@ -51342,7 +51341,7 @@
       <c r="B2346" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2346" s="9" t="s">
+      <c r="C2346" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2346" s="2" t="s">
@@ -51359,7 +51358,7 @@
       <c r="B2347" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2347" s="5" t="s">
+      <c r="C2347" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2347" s="2" t="s">
@@ -51376,7 +51375,7 @@
       <c r="B2348" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2348" s="5" t="s">
+      <c r="C2348" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2348" s="2" t="s">
@@ -51393,7 +51392,7 @@
       <c r="B2349" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2349" s="5" t="s">
+      <c r="C2349" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2349" s="2" t="s">
@@ -51410,7 +51409,7 @@
       <c r="B2350" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2350" s="5" t="s">
+      <c r="C2350" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2350" s="2" t="s">
@@ -51427,7 +51426,7 @@
       <c r="B2351" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2351" s="5" t="s">
+      <c r="C2351" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2351" s="2" t="s">
@@ -51444,7 +51443,7 @@
       <c r="B2352" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2352" s="5" t="s">
+      <c r="C2352" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2352" s="2" t="s">
@@ -51461,7 +51460,7 @@
       <c r="B2353" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2353" s="5" t="s">
+      <c r="C2353" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2353" s="2" t="s">
@@ -51478,7 +51477,7 @@
       <c r="B2354" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2354" s="5" t="s">
+      <c r="C2354" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2354" s="2" t="s">
@@ -51495,7 +51494,7 @@
       <c r="B2355" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2355" s="5" t="s">
+      <c r="C2355" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2355" s="2" t="s">
@@ -51512,7 +51511,7 @@
       <c r="B2356" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2356" s="5" t="s">
+      <c r="C2356" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2356" s="2" t="s">
@@ -51529,7 +51528,7 @@
       <c r="B2357" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2357" s="5" t="s">
+      <c r="C2357" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2357" s="2" t="s">
@@ -51546,7 +51545,7 @@
       <c r="B2358" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="C2358" s="5" t="s">
+      <c r="C2358" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="D2358" s="2" t="s">
@@ -51563,7 +51562,7 @@
       <c r="B2359" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C2359" s="5" t="s">
+      <c r="C2359" s="6" t="s">
         <v>3660</v>
       </c>
       <c r="D2359" s="2" t="s">

--- a/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
@@ -11459,8 +11459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2234" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2339" workbookViewId="0">
+      <selection activeCell="C2364" sqref="C2364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
